--- a/template_database/テンプレートデータベース調査.xlsx
+++ b/template_database/テンプレートデータベース調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94981D25-5E42-401D-A2FF-A84D4E81386E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D67A34-3E7E-44F4-B0EF-F667AF9B0477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>CREATE DATABASE</t>
   </si>
@@ -321,10 +321,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ERROR:  現在オープンしているデータベースを削除できません</t>
+  </si>
+  <si>
     <t>psql -U postgres -p 5432 -d sample -c "drop database sample;"</t>
-  </si>
-  <si>
-    <t>ERROR:  現在オープンしているデータベースを削除できません</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、テンプレートデータベース自体も消せないようになっています</t>
+    <rPh sb="15" eb="17">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d template1 -c "drop database template1;"</t>
+  </si>
+  <si>
+    <t>ERROR:  テンプレートデータベースを削除できません</t>
   </si>
 </sst>
 </file>
@@ -823,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B85"/>
+  <dimension ref="B1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1123,12 +1140,27 @@
     </row>
     <row r="84" spans="2:2" s="2" customFormat="1">
       <c r="B84" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="2:2" s="2" customFormat="1">
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" s="2" customFormat="1">
+      <c r="B88" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" s="2" customFormat="1">
+      <c r="B89" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
